--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -101,6 +100,9 @@
   </si>
   <si>
     <t>Allopurinol</t>
+  </si>
+  <si>
+    <t>TC002_Verifylogin</t>
   </si>
 </sst>
 </file>
@@ -444,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,12 +686,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -103,19 +103,35 @@
   </si>
   <si>
     <t>TC002_Verifylogin</t>
+  </si>
+  <si>
+    <t>TC004_addSubCategory</t>
+  </si>
+  <si>
+    <t>Acetonicpoly</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF484343"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,20 +703,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -724,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -735,8 +755,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -706,7 +706,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>TC001_addMainCategory</t>
+  </si>
+  <si>
+    <t>Tramadol</t>
+  </si>
+  <si>
+    <t>C:\Users\Naren Srivaschava\Downloads\ACAMOL-500.jpg</t>
+  </si>
+  <si>
+    <t>Wellbutrin</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -703,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +732,7 @@
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -757,24 +773,47 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>TC003_addProduct</t>
   </si>
 </sst>
 </file>
@@ -718,10 +721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +818,17 @@
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>TC003_addProduct</t>
+  </si>
+  <si>
+    <t>cat123</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +727,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +832,9 @@
       </c>
       <c r="D6" t="s">
         <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -105,41 +105,119 @@
     <t>TC002_Verifylogin</t>
   </si>
   <si>
-    <t>TC004_addSubCategory</t>
-  </si>
-  <si>
-    <t>Acetonicpoly</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>TC001_addMainCategory</t>
-  </si>
-  <si>
-    <t>Tramadol</t>
-  </si>
-  <si>
-    <t>C:\Users\Naren Srivaschava\Downloads\ACAMOL-500.jpg</t>
-  </si>
-  <si>
-    <t>Wellbutrin</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>TC003_addProduct</t>
-  </si>
-  <si>
-    <t>cat123</t>
+    <t>TC004_VerifyMainCategoryPage</t>
+  </si>
+  <si>
+    <t>TC005_addMainCategory</t>
+  </si>
+  <si>
+    <t>TC006_Editmaincategories</t>
+  </si>
+  <si>
+    <t>TC007_verifyingDuplicateRecord</t>
+  </si>
+  <si>
+    <t>TC008_Deletemaincategories</t>
+  </si>
+  <si>
+    <t>TC009_AVerifySubCategoryPage</t>
+  </si>
+  <si>
+    <t>TC0010_AddSubCategory</t>
+  </si>
+  <si>
+    <t>TC0011_EditSubCategory</t>
+  </si>
+  <si>
+    <t>TC0012_DuplicateSubCategoryRecord</t>
+  </si>
+  <si>
+    <t>TC0013_DeleteSubCategory</t>
+  </si>
+  <si>
+    <t>TC0014_VerifyProductsPage</t>
+  </si>
+  <si>
+    <t>TC0015_AddProducts</t>
+  </si>
+  <si>
+    <t>TC0016_EditProducts</t>
+  </si>
+  <si>
+    <t>TC0017_DeleteProducts</t>
+  </si>
+  <si>
+    <t>TC0018_verifyProductDetailPage</t>
+  </si>
+  <si>
+    <t>TC0019_Logout</t>
+  </si>
+  <si>
+    <t>amantadine </t>
+  </si>
+  <si>
+    <t>C:\Users\Naren Srivaschava\Downloads\calpol.jpg</t>
+  </si>
+  <si>
+    <t>atenolol</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SINAREST</t>
+  </si>
+  <si>
+    <t>angina </t>
+  </si>
+  <si>
+    <t>Advil-1.5</t>
+  </si>
+  <si>
+    <t>A12R54899</t>
+  </si>
+  <si>
+    <t>amlodipine</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Tenormin</t>
+  </si>
+  <si>
+    <t>BA1254</t>
+  </si>
+  <si>
+    <t>A124</t>
+  </si>
+  <si>
+    <t>AE1258</t>
+  </si>
+  <si>
+    <t>BA12549</t>
+  </si>
+  <si>
+    <t>C:\Users\Naren Srivaschava\Desktop\Jenkis notes.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\Naren Srivaschava\Desktop\verify.txt</t>
+  </si>
+  <si>
+    <t>15FR56</t>
+  </si>
+  <si>
+    <t>C:\Users\Naren Srivaschava\Desktop\products.txt</t>
+  </si>
+  <si>
+    <t>yyyyyyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +227,26 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FF484343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF484343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF484343"/>
       <name val="Arial"/>
@@ -175,12 +273,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,24 +825,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -766,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -777,64 +880,355 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15">
+        <v>1500</v>
+      </c>
+      <c r="Q15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+      <c r="R15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16">
+        <v>1550</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
